--- a/sam.xlsx
+++ b/sam.xlsx
@@ -7,7 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="STATION 0.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="STATION 0.5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="STATION 1.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="STATION 1.5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="STATION 2.0" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="STATION 3.0" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="STATION 4.0" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="STATION 5.0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="STATION 6.0" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="STATION 7.0" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="STATION 8.0" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="STATION 9.0" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="STATION 10.0" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="STATION 11.0" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="STATION 12.0" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="STATION 13.0" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="STATION 14.0" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="STATION 15.0" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="STATION 16.0" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="STATION 17.0" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="STATION 18.0" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="STATION 18.5" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="STATION 19.0" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="STATION 19.5" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="STATION 20.0" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,12 +54,17 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099CCFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -55,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,106 +515,5156 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>206.52</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>137.68</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.61799485861183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>46.93</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44.25333333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>663.5600000000001</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>580.0533333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.13935648838696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>62.88</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>86.17333333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1136.48</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1337.706666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.07379134860051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>37.74666666666666</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>58.45999999999999</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>38.97333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.032497350759449</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.575</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>78.13</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>181.88</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>160.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.002558811390838</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.79</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>159.3233333333333</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.76</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>647.4</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000164217095</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>240.5233333333333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1459.4</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>321.7233333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2596.2</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>402.9233333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4057.8</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.77999999999999</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.53333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.026306680512288</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.82</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>79.06666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.54</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>161.2266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.001315356790529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>648.4266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241.4666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1460.426666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.6666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2597.226666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.8666666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.826666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>57.255</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>58.87</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>39.24666666666667</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.028207143480919</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.645</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>182.07</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>160.6266666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.002226069750185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.8000000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>647.8266666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1459.826666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>322.1999999999999</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2596.626666666667</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>403.3999999999999</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4058.226666666667</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>32.86666666666666</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.450742240215924</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>36.45999999999999</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>29.49666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>378.08</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>284.92</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.3697202413604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>73.20999999999998</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>924.3199999999999</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>901.1333333333332</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.09669055970718</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>80.81</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>127.0833333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1459.12</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1873.88</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.05618116569731</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>56.06</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>37.37333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.038148148148148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>58.875</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>75.25</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>176.86</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>155.28</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.003991507430998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>119.13</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>154.67</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>714.92</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>631.8933333333333</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.001175186770753</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>119.39</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>234.2633333333333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1194.36</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1428.133333333333</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.00385291900494</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.47</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>315.2433333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1701</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2562.133333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.00345764386268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>396.4433333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4023.733333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>29.41999999999999</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.065941536369817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>50.975</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>63.40333333333333</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>153.32</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>133.5733333333333</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.007748896517901</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>104.22</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>132.8833333333333</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>625.24</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>550.4</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>5.999232393014776</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>104.85</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>202.7833333333333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1049.84</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1250.293333333333</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.01278016213639</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>113.07</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>278.1633333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1586.56</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2308</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.03166180242328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>120.83</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>358.7166666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2176.08</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3758.72</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.00943474302739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>23.13333333333333</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>25.38666666666666</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.097406340057637</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>51.27999999999999</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>127.08</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>110.1066666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.009947891994316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>87.11000000000001</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>109.3533333333333</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>522.8800000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>458.6933333333334</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.002525542417633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>88.45</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>168.32</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>886.1600000000001</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1049.466666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.01876766534765</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>99.36</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>234.56</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1396.24</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1980.293333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.05233494363929</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>115.29</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>311.42</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2079.24</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3366.453333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.03486859224564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>15.30666666666667</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>26.64</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.160278745644599</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>31.53</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>36.32666666666667</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>95.02</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>81.10666666666665</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.013637805264827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>79.74000000000001</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>390.48</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>341.4266666666666</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>5.996314496314496</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>123.0866666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>651.84</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>775.9866666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.02522300830514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>76.84</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>174.3133333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1081.28</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1496.84</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.07183758459136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>96.02</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>238.3266666666667</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1735.28</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2653.693333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.07206831910019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>11.955</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.232120451693852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>21.38666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>60.91</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>50.42666666666666</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.026583850931678</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>49.58</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>252.48</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>218.7466666666666</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>5.970205722393</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>74.24666666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>369.88</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>465.3333333333333</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>9.996756756756756</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44.65000000000001</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>104.0133333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>629.6399999999999</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>885.0933333333331</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.101679731243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>61.66</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>145.12</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1116.24</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1629.253333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.10314628608498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2.693333333333333</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.311881188118812</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>29.56</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>23.23999999999999</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.056876938986556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>106.16</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>94.01333333333334</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>5.810618500273673</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>24.82666666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>48.99999999999999</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>126.68</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>9.315589353612166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>25.74666666666667</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>140.5733333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>15.10144927536232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>34.32666666666667</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>237.6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>298.9733333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.46153846153846</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2.566666666666666</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>3.266666666666667</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.272727272727273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>7.799999999999999</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.070063694267516</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>26.38666666666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>173.92</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.23816355810617</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>55.29000000000001</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>63.24666666666666</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>563.3199999999999</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>510.8266666666666</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.18846084282872</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>116.7533333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1129.64</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1263.92</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.07475703962123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>95.11</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>180.16</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1716.64</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2408.346666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.04899589948481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>9.030000000000001</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.196013289036545</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>16.64666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.056461731493099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>48.99</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>49.30666666666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>301.84</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>240.9066666666667</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.16125739946928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>97.90666666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>737</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>732.24</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.10973936899863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>160.34</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1316.6</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1609.973333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.05872931126535</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>107.26</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>231.8466666666667</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1934.56</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2899.68</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.03617378333022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>14.715</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>9.809999999999999</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.164118246687054</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>24.515</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>26.15333333333333</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>74.81</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>61.29333333333334</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.051601060575158</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>71.34666666666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>414.48</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>337.6133333333333</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.114176132172886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>130.34</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>890.72</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>931.4266666666666</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.06577014351904</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>104.14</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>199.7666666666666</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1462.48</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1906.413333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.04340311119647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>114.69</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>276.2266666666666</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2067.24</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3284.573333333333</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.02458801987967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>28.185</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>21.19333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.127904913961327</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45.13666666666667</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>119.73</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>101.0133333333333</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.029605263157895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>95.00999999999999</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>108.4766666666667</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>575.88</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>484.9333333333333</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.06125670982002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>108.19</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>180.6033333333333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1085.08</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1208.32</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.02939273500323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>115.71</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>257.7433333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1621.96</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2289.626666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.01745743669519</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>338.0766666666667</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2170.08</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3736.346666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.00896265560166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>29.22666666666667</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.083271559179639</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>50.355</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>60.54999999999999</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>130.56</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.018568166021249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C5" s="2" t="n">
+        <v>111.94</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>135.1766666666666</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>675.3200000000001</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>580.7733333333333</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.032874754332679</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>214.3766666666667</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1189.24</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1373.6</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10.01043771043771</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.12</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>295.1233333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1696.04</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2504.293333333333</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14.00297225891678</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.75</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>376.29</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2191.6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3965.36</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18.00082135523614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>33.58666666666667</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>53.56</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>35.70666666666666</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.063120285827709</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>72.34666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>174.86</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>152.28</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.007567939456484</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>120.64</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>152.7733333333333</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>724.9599999999999</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>635.5866666666666</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.009283819628648</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>233.9733333333333</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1447.586666666667</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>315.1733333333333</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2584.386666666666</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>396.3733333333333</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4045.986666666666</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STATION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WL</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfAs</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>As</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ΣfM𝘇</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>M𝘇</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>38.09333333333333</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>1.042700729927007</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>60.09500000000001</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>76.59666666666666</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>180.56</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>158.4666666666667</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>3.004576087860887</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>121.73</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>157.75</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>730.52</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>645.48</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6.001150086256469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="C6" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>238.95</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1218</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1457.48</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>320.15</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1705.2</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2594.28</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" t="n">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>4055.88</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
